--- a/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials Tech-DONGLE02.xlsx
+++ b/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials Tech-DONGLE02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\#DONGLE02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B6C583-8A8F-4293-9102-DFA1CF3E9FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1328C578-2DFB-4C97-9F35-B630310EAEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{61C49D81-8B8D-4972-A2EB-EDBA5B0C76E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{F3CE04F2-4455-43A2-BBBF-0B7F32CC668C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials Tech-DONGLE02" sheetId="1" r:id="rId1"/>
@@ -28,165 +28,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
-  <si>
-    <t>Comment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footprint</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
     <t>Manufacturer P/N</t>
   </si>
   <si>
-    <t>Supplier Web Page</t>
+    <t>Datasheet Web</t>
+  </si>
+  <si>
+    <t>Supplier Web</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
+    <t>C0805</t>
+  </si>
+  <si>
     <t>0.1 µF ±10% 100V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
     <t>Murata Electronics</t>
   </si>
   <si>
     <t>GCM21BR72A104KA37L</t>
   </si>
   <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM033R71A103KA03-01A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GCM21BR72A104KA37L/1641663?s=N4IgTCBcDaIOIGECyYCMAhASgdjAQVQAYAWAaTwGZsAZEAXQF8g</t>
+  </si>
+  <si>
+    <t>C2, C4, C5</t>
+  </si>
+  <si>
     <t>0.33uF</t>
   </si>
   <si>
     <t>0.33 µF ±5% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>C2, C4, C5</t>
-  </si>
-  <si>
     <t>KEMET</t>
   </si>
   <si>
     <t>C0805C334J3RECAUTO7210</t>
   </si>
   <si>
+    <t>https://content.kemet.com/datasheets/KEM_C1090_X7R_ESD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C334J3RECAUTO7210/8647991</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>0.047uF</t>
   </si>
   <si>
     <t>0.047 µF ±5% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>KYOCERA AVX</t>
   </si>
   <si>
     <t>KGM21NR71E473JT</t>
   </si>
   <si>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/KGM21NR71E473JT/1602247</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>Blue Led 0805</t>
   </si>
   <si>
+    <t>LED 0805</t>
+  </si>
+  <si>
     <t>Blue 470nm LED Indication - Discrete 3.2V 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>LED 0805</t>
-  </si>
-  <si>
     <t>Würth Elektronik</t>
   </si>
   <si>
     <t>150080BS75000</t>
   </si>
   <si>
-    <t>Header 6</t>
+    <t>https://www.we-online.com/components/products/datasheet/150080BS75000.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080BS75000/4489912</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>1x6 0.1" Right Angle Pin Header</t>
+  </si>
+  <si>
+    <t>BERG-M-6V-H-INV</t>
   </si>
   <si>
     <t>Connector Header Through Hole, Right Angle 6 position 0.100" (2.54mm)</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>BERG-M-6V-H-INV</t>
-  </si>
-  <si>
     <t>Adam Tech</t>
   </si>
   <si>
     <t>PH1RB-06-UA</t>
   </si>
   <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/201281/ph1rb-xx-ua-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/PH1RB-06-UA/9830592</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
     <t>MPT 0,5/ 6-2,54</t>
   </si>
   <si>
+    <t>1725698</t>
+  </si>
+  <si>
     <t>6 Position Wire to Board Terminal Block Horizontal with Board 0.100" (2.54mm) Through Hole</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>1725698</t>
-  </si>
-  <si>
     <t>Phoenix Contact</t>
   </si>
   <si>
+    <t>https://www.phoenixcontact.com/en-us/products/printed-circuit-board-terminal-mpt-05-6-254-1725698?type=pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/phoenix-contact/1725698/267466</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
     <t>180R</t>
   </si>
   <si>
+    <t>R0805</t>
+  </si>
+  <si>
     <t>180 Ohms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Anti-Sulfur Thin Film</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
     <t>Stackpole Electronics Inc</t>
   </si>
   <si>
     <t>RNCP0805FTD180R</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RNCP0805FTD180R/2240212</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
     <t>2/2 RS232 400kbps</t>
   </si>
   <si>
+    <t>SOIC16N</t>
+  </si>
+  <si>
     <t>2/2 Transceiver Full RS232 16-SO</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC16N</t>
-  </si>
-  <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
     <t>ST3232CDR</t>
+  </si>
+  <si>
+    <t>https://www.st.com/content/ccc/resource/technical/document/datasheet/group1/40/2c/7f/62/3a/3f/47/3c/CD00002253/files/CD00002253.pdf/jcr:content/translations/en.CD00002253.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stmicroelectronics/ST3232CDR/686410?s=N4IgTCBcDaIMoBUDMYUGEAiAlEBdAvkA</t>
   </si>
 </sst>
 </file>
@@ -243,9 +291,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -562,224 +609,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37D3198-D76B-4A75-97DA-C805D6F02A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C112AE-AE81-4E31-BE47-71001500B5B8}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="135.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials Tech-DONGLE02.xlsx
+++ b/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials Tech-DONGLE02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\#DONGLE02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1328C578-2DFB-4C97-9F35-B630310EAEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76FB10F-83BA-4E24-9A2B-74CD72A081D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{F3CE04F2-4455-43A2-BBBF-0B7F32CC668C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{D734D340-80E0-4581-887E-53EE30FA7E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials Tech-DONGLE02" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C112AE-AE81-4E31-BE47-71001500B5B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D01905C-067C-4BF6-8F65-A9A4F2BEF07B}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials Tech-DONGLE02.xlsx
+++ b/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials Tech-DONGLE02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\#DONGLE02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BENADUCE\Documents\GitHub\Dongle02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76FB10F-83BA-4E24-9A2B-74CD72A081D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ADA8D4-4A40-4BEC-A8E3-82464E7FE374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{D734D340-80E0-4581-887E-53EE30FA7E91}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{2C9DB59E-0C37-408E-B290-480DEDD8DE89}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials Tech-DONGLE02" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D01905C-067C-4BF6-8F65-A9A4F2BEF07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4A1AEE-1133-4FD1-93FE-71F629C9FCF0}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
